--- a/doc/ue_font.xlsx
+++ b/doc/ue_font.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576FAFE9-56B3-411A-A860-759612C0404B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847EE09E-E017-4982-A2DD-E8F631AFD063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="slate加载字体" sheetId="5" r:id="rId2"/>
     <sheet name="加载ttf" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="销毁处理" sheetId="3" r:id="rId4"/>
+    <sheet name="优化" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t>搞清楚UE中的FONT到底怎么回事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,39 +85,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>记载函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case EFontLoadingPolicy::LazyLoad:</t>
+  </si>
+  <si>
+    <t>GAsyncFontLazyLoad是否异步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;uint8&gt; FontFaceData;</t>
+  </si>
+  <si>
+    <t>if (FFileHelper::LoadFileToArray(FontFaceData, *InFontData.GetFontFilename()))</t>
+  </si>
+  <si>
+    <t>const int32 FontDataSizeKB = (FontFaceData.Num() + 1023) / 1024;</t>
+  </si>
+  <si>
+    <t>LoadLogMessage = FString::Printf(TEXT("Took %f seconds to synchronously load lazily loaded font '%s' (%dK)"), float(FPlatformTime::Seconds() - FontDataLoadStartTime), *InFontData.GetFontFilename(), FontDataSizeKB);</t>
+  </si>
+  <si>
+    <t>FaceAndMemory = MakeShared&lt;FFreeTypeFace&gt;(FTLibrary, FFontFaceData::MakeFontFaceData(MoveTemp(FontFaceData)), InFontData.GetSubFaceIndex(), InFontData.GetLayoutMethod());</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>否则同步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STextBlock和UTextBlock内部的字体就是Ufont对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维持了uFont对象的引用，不会被卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ufont被加载，底层会有引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的字符会被缓存下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ufont被GC销毁的时候，会释放底层的Font字库，同时清除掉相关的缓存字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！所以，字体要管理器起来，不要乱用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ufont对象被TextBlock引用，当没有UMG引用的时候，会在GC的时候被回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UFont::BeginDestroy()</t>
+  </si>
+  <si>
+    <t>if (FontCacheType == EFontCacheType::Runtime &amp;&amp; FSlateApplication::IsInitialized())</t>
+  </si>
+  <si>
+    <t>FSlateRenderer* SlateRenderer = FSlateApplication::Get().GetRenderer();</t>
+  </si>
+  <si>
+    <t>if (SlateRenderer)</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt;FSlateFontCache&gt; FontCache = SlateRenderer-&gt;GetFontCache();</t>
+  </si>
+  <si>
+    <t>FontCache-&gt;FlushCompositeFont(CompositeFont);</t>
+  </si>
+  <si>
+    <t>FontCache-&gt;FlushObject(this);</t>
+  </si>
+  <si>
+    <t>Super::BeginDestroy();</t>
+  </si>
+  <si>
+    <t>！！！清空缓存了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！再次利用的时候有会被加载，导致阻塞IO加载字库而卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateFontCache::FlushObject( const UObject* const InObject )</t>
+  </si>
+  <si>
+    <t>if (InObject)</t>
+  </si>
+  <si>
+    <t>// Add it to the list of pending objects to flush</t>
+  </si>
+  <si>
+    <t>FScopeLock ScopeLock(&amp;FontObjectsToFlushCS);</t>
+  </si>
+  <si>
+    <t>FontObjectsToFlush.AddUnique(InObject);</t>
+  </si>
+  <si>
+    <t>先插入到需要删除的列表里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::DrawWindows_Private(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
+  </si>
+  <si>
+    <t>删除字库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// flush the cache if needed</t>
+  </si>
+  <si>
+    <t>FontCache-&gt;ConditionalFlushCache();</t>
+  </si>
+  <si>
+    <t>！！！反复卸载加载字库，会导致IO卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FSlateFontCache::ConditionalFlushCache()</t>
+  </si>
+  <si>
+    <t>if (!bFlushed &amp;&amp; IsInGameThread())</t>
+  </si>
+  <si>
+    <t>// Only bother calling this if we didn't do a full flush</t>
+  </si>
+  <si>
+    <t>FlushFontObjects();</t>
+  </si>
+  <si>
+    <t>bool bFlushed = false;</t>
+  </si>
+  <si>
+    <t>if (bFlushRequested)</t>
+  </si>
+  <si>
+    <t>if (FlushCache())</t>
+  </si>
+  <si>
+    <t>bFlushRequested = false;</t>
+  </si>
+  <si>
+    <t>bFlushed = true;</t>
+  </si>
+  <si>
+    <t>！！！只有调用void FSlateFontCache::RequestFlushCache(const FString&amp; FlushReason)的时候会清空所有的字体，一般不会用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！清理不用的字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateFontCache::FlushData()</t>
+  </si>
+  <si>
+    <t>// Ensure all invalidation panels are cleared of cached widgets</t>
+  </si>
+  <si>
+    <t>FSlateApplicationBase::Get().InvalidateAllWidgets(false);</t>
+  </si>
+  <si>
+    <t>if (GIsEditor || UnloadFreeTypeDataOnFlush)</t>
+  </si>
+  <si>
+    <t>FTCacheDirectory-&gt;FlushCache();</t>
+  </si>
+  <si>
+    <t>CompositeFontCache-&gt;FlushCache();</t>
+  </si>
+  <si>
+    <t>FontToCharacterListCache.Empty();</t>
+  </si>
+  <si>
+    <t>ShapedGlyphToAtlasData.Empty();</t>
+  </si>
+  <si>
+    <t>！！！删除字库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！清空所有缓存字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TSharedPtr&lt;FFreeTypeFace&gt; FCompositeFontCache::GetFontFace(const FFontData&amp; InFontData)</t>
-  </si>
-  <si>
-    <t>记载函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case EFontLoadingPolicy::LazyLoad:</t>
-  </si>
-  <si>
-    <t>GAsyncFontLazyLoad是否异步加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TArray&lt;uint8&gt; FontFaceData;</t>
-  </si>
-  <si>
-    <t>if (FFileHelper::LoadFileToArray(FontFaceData, *InFontData.GetFontFilename()))</t>
-  </si>
-  <si>
-    <t>const int32 FontDataSizeKB = (FontFaceData.Num() + 1023) / 1024;</t>
-  </si>
-  <si>
-    <t>LoadLogMessage = FString::Printf(TEXT("Took %f seconds to synchronously load lazily loaded font '%s' (%dK)"), float(FPlatformTime::Seconds() - FontDataLoadStartTime), *InFontData.GetFontFilename(), FontDataSizeKB);</t>
-  </si>
-  <si>
-    <t>FaceAndMemory = MakeShared&lt;FFreeTypeFace&gt;(FTLibrary, FFontFaceData::MakeFontFaceData(MoveTemp(FontFaceData)), InFontData.GetSubFaceIndex(), InFontData.GetLayoutMethod());</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>否则同步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FFreeTypeFace&gt; FaceAndMemory = FontFaceMap.FindRef(InFontData);</t>
+  </si>
+  <si>
+    <t>if (!FaceAndMemory.IsValid() &amp;&amp; InFontData.HasFont())</t>
+  </si>
+  <si>
+    <t>先从缓存找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMap&lt;FFontData, TSharedPtr&lt;FFreeTypeFace&gt;&gt; FontFaceMap;</t>
+  </si>
+  <si>
+    <t>存储的是SharePtr，会自动销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (FaceAndMemory.IsValid())</t>
+  </si>
+  <si>
+    <t>FontFaceMap.Add(InFontData, FaceAndMemory);</t>
+  </si>
+  <si>
+    <t>if (!LoadLogMessage.IsEmpty())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogSlate, Log, TEXT("%s"), *LoadLogMessage);</t>
+  </si>
+  <si>
+    <t>缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体可以提前缓存住，这样子在没有UMG的时候也不会被销毁，重复创建UMG不会导致卡顿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:E9"/>
+  <dimension ref="B4:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,6 +720,49 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -529,16 +773,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AADCE7E-C302-4858-9EA2-8B4E6B4728F3}">
-  <dimension ref="A2:E30"/>
+  <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -593,63 +837,129 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>17</v>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>25</v>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -675,12 +985,313 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F33C26-ED9B-46B5-BEA8-064302415D85}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -688,12 +1299,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6629D7-421D-48AA-9A91-876CF86865F6}">
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/ue_font.xlsx
+++ b/doc/ue_font.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847EE09E-E017-4982-A2DD-E8F631AFD063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3614DEC3-785B-44F6-A0BC-DF4BAED1EF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>搞清楚UE中的FONT到底怎么回事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,44 @@
   </si>
   <si>
     <t>字体可以提前缓存住，这样子在没有UMG的时候也不会被销毁，重复创建UMG不会导致卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改引擎配置，把默认的字库全部修改为游戏的，就不要这份字库了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseEngine.ini</t>
+  </si>
+  <si>
+    <t>[SlateStyle]</t>
+  </si>
+  <si>
+    <t>DefaultFontName=/Engine/EngineFonts/Roboto</t>
+  </si>
+  <si>
+    <t>[/Script/Engine.Engine]</t>
+  </si>
+  <si>
+    <t>; Leaving these unset causes the engine to use FCoreStyle::GetDefaultFont() instead</t>
+  </si>
+  <si>
+    <t>;TinyFontName=/Engine/EngineFonts/RobotoTiny.RobotoTiny</t>
+  </si>
+  <si>
+    <t>;SmallFontName=/Engine/EngineFonts/Roboto.Roboto</t>
+  </si>
+  <si>
+    <t>;MediumFontName=/Engine/EngineFonts/Roboto.Roboto</t>
+  </si>
+  <si>
+    <t>;LargeFontName=/Engine/EngineFonts/Roboto.Roboto</t>
+  </si>
+  <si>
+    <t>;SubtitleFontName=/Engine/EngineFonts/Roboto.Roboto</t>
+  </si>
+  <si>
+    <t>!!!打包时怎么也能给去掉就好了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1299,17 +1337,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6629D7-421D-48AA-9A91-876CF86865F6}">
-  <dimension ref="B3"/>
+  <dimension ref="B3:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_font.xlsx
+++ b/doc/ue_font.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3614DEC3-785B-44F6-A0BC-DF4BAED1EF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A41B72-81F9-4867-85CD-7FCE57D7BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="加载ttf" sheetId="2" r:id="rId3"/>
     <sheet name="销毁处理" sheetId="3" r:id="rId4"/>
     <sheet name="优化" sheetId="4" r:id="rId5"/>
+    <sheet name="UFONT" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>搞清楚UE中的FONT到底怎么回事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +358,37 @@
   </si>
   <si>
     <t>!!!打包时怎么也能给去掉就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFOnt默认是CompositeFont，本身加载该对象不会触发加载字体，而是给赋值TEXT的时候，根据TEXT每一个字符，计算到底处于哪一个字体（默认的还是subfontface），按需加载对应的字库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何的UFOnt对象的Destroy会触发释放字体库和缓存字符的处理，即使提前缓存了Ufont也没有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除非打开开关：UnloadFreeTypeDataOnFlush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int32 UnloadFreeTypeDataOnFlush = 1;</t>
+  </si>
+  <si>
+    <t>FAutoConsoleVariableRef CVarUnloadFreeTypeDataOnFlush(</t>
+  </si>
+  <si>
+    <t>TEXT("Slate.UnloadFreeTypeDataOnFlush"),</t>
+  </si>
+  <si>
+    <t>UnloadFreeTypeDataOnFlush,</t>
+  </si>
+  <si>
+    <t>TEXT("Releases the free type data when the font cache is flushed"));</t>
+  </si>
+  <si>
+    <t>同时，当底层字符满的时候，也会强制触发释放字库和缓存字符，所以上面的设置，确保不会释放字库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6629D7-421D-48AA-9A91-876CF86865F6}">
   <dimension ref="B3:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1412,4 +1444,129 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2058415-6117-40B8-B2F4-927F71084EE7}">
+  <dimension ref="B4:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_font.xlsx
+++ b/doc/ue_font.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A41B72-81F9-4867-85CD-7FCE57D7BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191A001F-DD12-4C70-A494-3208CD401886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="122">
   <si>
     <t>搞清楚UE中的FONT到底怎么回事</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,52 @@
   </si>
   <si>
     <t>同时，当底层字符满的时候，也会强制触发释放字库和缓存字符，所以上面的设置，确保不会释放字库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int32 InitialMaxAtlasPagesBeforeFlushRequest = 1;</t>
+  </si>
+  <si>
+    <t>FAutoConsoleVariableRef CVarMaxAtlasPagesBeforeFlush(</t>
+  </si>
+  <si>
+    <t>TEXT("Slate.MaxFontAtlasPagesBeforeFlush"),</t>
+  </si>
+  <si>
+    <t>InitialMaxAtlasPagesBeforeFlushRequest,</t>
+  </si>
+  <si>
+    <t>TEXT("The number of font atlas textures created and used before we flush the font cache if a texture atlas is full"));</t>
+  </si>
+  <si>
+    <t>static int32 InitialMaxNonAtlasedTexturesBeforeFlushRequest = 1;</t>
+  </si>
+  <si>
+    <t>FAutoConsoleVariableRef CVarMaxFontNonAtlasPagesBeforeFlush(</t>
+  </si>
+  <si>
+    <t>TEXT("Slate.MaxFontNonAtlasTexturesBeforeFlush"),</t>
+  </si>
+  <si>
+    <t>InitialMaxNonAtlasedTexturesBeforeFlushRequest,</t>
+  </si>
+  <si>
+    <t>TEXT("The number of large glyph font textures initially."));</t>
+  </si>
+  <si>
+    <t>设置缓存字符对应的Atals个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (GIsEditor || UnloadFreeTypeDataOnFlush)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置释放清空FONT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE的Ufont对应的组合字体，不表示真实的ttf字体，只有用到的时候，根据每一个CHAR选择最佳当的SubFontFace取加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,14 +1086,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BF8D6A-204A-436A-8DE2-6FFCCC79B7AF}">
-  <dimension ref="A1"/>
+  <dimension ref="B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1057,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F33C26-ED9B-46B5-BEA8-064302415D85}">
   <dimension ref="B2:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1317,7 +1369,7 @@
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.2">
@@ -1369,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6629D7-421D-48AA-9A91-876CF86865F6}">
-  <dimension ref="B3:N22"/>
+  <dimension ref="B3:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1410,34 +1462,135 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="2"/>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="2"/>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="2"/>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="2"/>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1448,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2058415-6117-40B8-B2F4-927F71084EE7}">
-  <dimension ref="B4:E35"/>
+  <dimension ref="A4:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1559,9 +1712,64 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
